--- a/src/Audit/CIS_Debian_Linux_10.xlsx
+++ b/src/Audit/CIS_Debian_Linux_10.xlsx
@@ -3914,7 +3914,7 @@
   <dimension ref="A1:O205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Audit/CIS_Debian_Linux_10.xlsx
+++ b/src/Audit/CIS_Debian_Linux_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnv-my.sharepoint.com/personal/dongwen_huang_dnv_com/Documents/Project/Code/CIS Assessor Linux/src/Audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_5297DCDC878B14CC963934BC98826330650CF090" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49FB00D4-7F93-4497-BFFA-2F8938EECEBA}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_5297DCDC878B14CC963934BC98826330650CF090" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B37437E2-B93D-4D96-9846-C7072EC0C22D}"/>
   <bookViews>
-    <workbookView xWindow="-4020" yWindow="-12108" windowWidth="14208" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11832" yWindow="-10920" windowWidth="14208" windowHeight="10104" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FILE_CHECK_NOT" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1102">
   <si>
     <t>Checklist</t>
   </si>
@@ -3841,7 +3841,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,8 +4092,8 @@
       <c r="G8" t="s">
         <v>527</v>
       </c>
-      <c r="H8" t="s">
-        <v>777</v>
+      <c r="H8">
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>527</v>
